--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H2">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I2">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J2">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>3855.773997022727</v>
+        <v>4176.300549457967</v>
       </c>
       <c r="R2">
-        <v>3855.773997022727</v>
+        <v>37586.70494512171</v>
       </c>
       <c r="S2">
-        <v>0.01380766471585337</v>
+        <v>0.01473330494262953</v>
       </c>
       <c r="T2">
-        <v>0.01380766471585337</v>
+        <v>0.01473330494262953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H3">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I3">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J3">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>4104.246102675756</v>
+        <v>4401.975483758357</v>
       </c>
       <c r="R3">
-        <v>4104.246102675756</v>
+        <v>39617.77935382522</v>
       </c>
       <c r="S3">
-        <v>0.01469745222122797</v>
+        <v>0.01552944918214961</v>
       </c>
       <c r="T3">
-        <v>0.01469745222122797</v>
+        <v>0.01552944918214961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H4">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I4">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J4">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>2646.52039737121</v>
+        <v>2844.0683864125</v>
       </c>
       <c r="R4">
-        <v>2646.52039737121</v>
+        <v>25596.6154777125</v>
       </c>
       <c r="S4">
-        <v>0.009477284285537783</v>
+        <v>0.01003340787342188</v>
       </c>
       <c r="T4">
-        <v>0.009477284285537783</v>
+        <v>0.01003340787342188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H5">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I5">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J5">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>2052.054934599593</v>
+        <v>2218.302274320492</v>
       </c>
       <c r="R5">
-        <v>2052.054934599593</v>
+        <v>19964.72046888442</v>
       </c>
       <c r="S5">
-        <v>0.007348482182135684</v>
+        <v>0.007825807428235562</v>
       </c>
       <c r="T5">
-        <v>0.007348482182135684</v>
+        <v>0.007825807428235562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H6">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I6">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J6">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>1356.609591768872</v>
+        <v>1523.826455971319</v>
       </c>
       <c r="R6">
-        <v>1356.609591768872</v>
+        <v>13714.43810374187</v>
       </c>
       <c r="S6">
-        <v>0.004858067513272066</v>
+        <v>0.005375810382800571</v>
       </c>
       <c r="T6">
-        <v>0.004858067513272066</v>
+        <v>0.005375810382800571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H7">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I7">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J7">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>71151.73382670588</v>
+        <v>71918.45998481393</v>
       </c>
       <c r="R7">
-        <v>71151.73382670588</v>
+        <v>647266.1398633254</v>
       </c>
       <c r="S7">
-        <v>0.2547969059881096</v>
+        <v>0.2537165583300957</v>
       </c>
       <c r="T7">
-        <v>0.2547969059881096</v>
+        <v>0.2537165583300957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H8">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I8">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J8">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>75736.86281466958</v>
+        <v>75804.72093271543</v>
       </c>
       <c r="R8">
-        <v>75736.86281466958</v>
+        <v>682242.4883944389</v>
       </c>
       <c r="S8">
-        <v>0.2712164170366379</v>
+        <v>0.2674266510195447</v>
       </c>
       <c r="T8">
-        <v>0.2712164170366379</v>
+        <v>0.2674266510195447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H9">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I9">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J9">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>48837.0207968894</v>
+        <v>48976.60405902268</v>
       </c>
       <c r="R9">
-        <v>48837.0207968894</v>
+        <v>440789.4365312041</v>
       </c>
       <c r="S9">
-        <v>0.1748871197858831</v>
+        <v>0.1727814447525002</v>
       </c>
       <c r="T9">
-        <v>0.1748871197858831</v>
+        <v>0.1727814447525003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H10">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I10">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J10">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>37867.17442908986</v>
+        <v>38200.52734725855</v>
       </c>
       <c r="R10">
-        <v>37867.17442908986</v>
+        <v>343804.746125327</v>
       </c>
       <c r="S10">
-        <v>0.1356037072342254</v>
+        <v>0.134765209474559</v>
       </c>
       <c r="T10">
-        <v>0.1356037072342254</v>
+        <v>0.134765209474559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H11">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I11">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J11">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>25033.91657675676</v>
+        <v>26241.22730146845</v>
       </c>
       <c r="R11">
-        <v>25033.91657675676</v>
+        <v>236171.0457132161</v>
       </c>
       <c r="S11">
-        <v>0.0896473514483488</v>
+        <v>0.09257475589288434</v>
       </c>
       <c r="T11">
-        <v>0.0896473514483488</v>
+        <v>0.09257475589288434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H12">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I12">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J12">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>10.16721379684974</v>
+        <v>10.695467713812</v>
       </c>
       <c r="R12">
-        <v>10.16721379684974</v>
+        <v>96.259209424308</v>
       </c>
       <c r="S12">
-        <v>3.640915658171349E-05</v>
+        <v>3.773185992375304E-05</v>
       </c>
       <c r="T12">
-        <v>3.640915658171349E-05</v>
+        <v>3.773185992375304E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H13">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I13">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J13">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>10.82240495242019</v>
+        <v>11.273419167507</v>
       </c>
       <c r="R13">
-        <v>10.82240495242019</v>
+        <v>101.460772507563</v>
       </c>
       <c r="S13">
-        <v>3.875541956494194E-05</v>
+        <v>3.977077807834554E-05</v>
       </c>
       <c r="T13">
-        <v>3.875541956494194E-05</v>
+        <v>3.977077807834554E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H14">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I14">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J14">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>6.978557020866345</v>
+        <v>7.283633264061</v>
       </c>
       <c r="R14">
-        <v>6.978557020866345</v>
+        <v>65.552699376549</v>
       </c>
       <c r="S14">
-        <v>2.499046251647282E-05</v>
+        <v>2.569546628621318E-05</v>
       </c>
       <c r="T14">
-        <v>2.499046251647282E-05</v>
+        <v>2.569546628621318E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H15">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I15">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J15">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>5.411022860537126</v>
+        <v>5.681051943819</v>
       </c>
       <c r="R15">
-        <v>5.411022860537126</v>
+        <v>51.129467494371</v>
       </c>
       <c r="S15">
-        <v>1.937706657231603E-05</v>
+        <v>2.004182162944832E-05</v>
       </c>
       <c r="T15">
-        <v>1.937706657231603E-05</v>
+        <v>2.004182162944832E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H16">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I16">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J16">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>3.577216862041584</v>
+        <v>3.90250569093</v>
       </c>
       <c r="R16">
-        <v>3.577216862041584</v>
+        <v>35.12255121836999</v>
       </c>
       <c r="S16">
-        <v>1.281014164344346E-05</v>
+        <v>1.376740148461806E-05</v>
       </c>
       <c r="T16">
-        <v>1.281014164344346E-05</v>
+        <v>1.376740148461806E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H17">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I17">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J17">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>35.79354198019382</v>
+        <v>36.70220799724756</v>
       </c>
       <c r="R17">
-        <v>35.79354198019382</v>
+        <v>330.319871975228</v>
       </c>
       <c r="S17">
-        <v>0.0001281779552009426</v>
+        <v>0.0001294793839876889</v>
       </c>
       <c r="T17">
-        <v>0.0001281779552009426</v>
+        <v>0.0001294793839876889</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H18">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I18">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J18">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>38.10013379586201</v>
+        <v>38.685486805937</v>
       </c>
       <c r="R18">
-        <v>38.10013379586201</v>
+        <v>348.1693812534329</v>
       </c>
       <c r="S18">
-        <v>0.0001364379430663284</v>
+        <v>0.0001364760670876323</v>
       </c>
       <c r="T18">
-        <v>0.0001364379430663284</v>
+        <v>0.0001364760670876322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H19">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I19">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J19">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>24.56791788571919</v>
+        <v>24.99427142283989</v>
       </c>
       <c r="R19">
-        <v>24.56791788571919</v>
+        <v>224.948442805559</v>
       </c>
       <c r="S19">
-        <v>8.797859345349704E-05</v>
+        <v>8.817569960077346E-05</v>
       </c>
       <c r="T19">
-        <v>8.797859345349704E-05</v>
+        <v>8.817569960077346E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H20">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I20">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J20">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>19.04943456332497</v>
+        <v>19.49490715735122</v>
       </c>
       <c r="R20">
-        <v>19.04943456332497</v>
+        <v>175.454164416161</v>
       </c>
       <c r="S20">
-        <v>6.821670712030311E-05</v>
+        <v>6.877484236971038E-05</v>
       </c>
       <c r="T20">
-        <v>6.821670712030311E-05</v>
+        <v>6.877484236971036E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H21">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I21">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J21">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>12.59354474904575</v>
+        <v>13.39170753551889</v>
       </c>
       <c r="R21">
-        <v>12.59354474904575</v>
+        <v>120.52536781967</v>
       </c>
       <c r="S21">
-        <v>4.509793458153624E-05</v>
+        <v>4.724375281106557E-05</v>
       </c>
       <c r="T21">
-        <v>4.509793458153624E-05</v>
+        <v>4.724375281106556E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H22">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I22">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J22">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>1771.687684874628</v>
+        <v>1922.773911496759</v>
       </c>
       <c r="R22">
-        <v>1771.687684874628</v>
+        <v>17304.96520347083</v>
       </c>
       <c r="S22">
-        <v>0.00634447702402801</v>
+        <v>0.006783231723466608</v>
       </c>
       <c r="T22">
-        <v>0.00634447702402801</v>
+        <v>0.006783231723466608</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H23">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I23">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J23">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>1885.858009681075</v>
+        <v>2026.674928919428</v>
       </c>
       <c r="R23">
-        <v>1885.858009681075</v>
+        <v>18240.07436027485</v>
       </c>
       <c r="S23">
-        <v>0.006753325044333339</v>
+        <v>0.007149777510918693</v>
       </c>
       <c r="T23">
-        <v>0.006753325044333339</v>
+        <v>0.007149777510918693</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H24">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I24">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J24">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>1216.048347079623</v>
+        <v>1309.412584450222</v>
       </c>
       <c r="R24">
-        <v>1216.048347079623</v>
+        <v>11784.713260052</v>
       </c>
       <c r="S24">
-        <v>0.004354712664100202</v>
+        <v>0.004619393330043169</v>
       </c>
       <c r="T24">
-        <v>0.004354712664100202</v>
+        <v>0.00461939333004317</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H25">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I25">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J25">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>942.8977059141881</v>
+        <v>1021.30909649952</v>
       </c>
       <c r="R25">
-        <v>942.8977059141881</v>
+        <v>9191.781868495684</v>
       </c>
       <c r="S25">
-        <v>0.003376550439590944</v>
+        <v>0.003603011368844571</v>
       </c>
       <c r="T25">
-        <v>0.003376550439590944</v>
+        <v>0.003603011368844571</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H26">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I26">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J26">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>623.3478696561529</v>
+        <v>701.5715752474978</v>
       </c>
       <c r="R26">
-        <v>623.3478696561529</v>
+        <v>6314.144177227479</v>
       </c>
       <c r="S26">
-        <v>0.002232231036414371</v>
+        <v>0.002475029714646349</v>
       </c>
       <c r="T26">
-        <v>0.002232231036414371</v>
+        <v>0.002475029714646349</v>
       </c>
     </row>
   </sheetData>
